--- a/biology/Zoologie/Formica_latinodosa/Formica_latinodosa.xlsx
+++ b/biology/Zoologie/Formica_latinodosa/Formica_latinodosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica latinodosa est une espèce fossile de fourmis du genre Formica dans la tribu des Formicini.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Formica latinodosa est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype Am9 ♂, de l'ère Cénozoïque, et de l'époque Stampien (33,9 à 28,1 Ma.) vient des collections du Muséum national d'histoire naturelle de Paris[3] et du gypse d'Aix-en-Provence[1].
-Étymologie
-L'épithète spécifique latinodosa signifie en latin « une dose de latin ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Formica latinodosa est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,18 +553,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Am9 ♂, de l'ère Cénozoïque, et de l'époque Stampien (33,9 à 28,1 Ma.) vient des collections du Muséum national d'histoire naturelle de Paris et du gypse d'Aix-en-Provence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Formica_latinodosa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_latinodosa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latinodosa signifie en latin « une dose de latin ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Formica_latinodosa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_latinodosa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : Pour l'holotype mâle Am9 
-« Un exemplaire noirâtre à ailes transparentes. Tête arrondie, un peu plus large que longue; yeux de forme ovale et de grande taille, ♂; antennes coudées, insérées en avant des yeux; scape allongé, funicule filiforme, 11 articles, dont le dernier est un peu plus long. thorax ovale. Pétiole court, gros, formé d'un seul segment renflé. abdomen ovoïde, court, segementation effacée. pattes brunes, cuisses fotes; tibia I conservé, allongé. Ailes transparentes; une cellule discoïdale et une cellule cubitale fermée; stigma noir, court. »[1].
-Dimensions
-La longueur totale est de 8,5 mm[1].
-Affinités
-« Appartient certainement au groupe des Formica. Serait assez voisin de F. strangulata Wheeler de l'ambre de la Baltique. Mais on ne connait de cette espèce que les ♀, aussi n'oserais-je pas affirmer l'identité. »[1].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : Pour l'holotype mâle Am9 
+« Un exemplaire noirâtre à ailes transparentes. Tête arrondie, un peu plus large que longue; yeux de forme ovale et de grande taille, ♂; antennes coudées, insérées en avant des yeux; scape allongé, funicule filiforme, 11 articles, dont le dernier est un peu plus long. thorax ovale. Pétiole court, gros, formé d'un seul segment renflé. abdomen ovoïde, court, segementation effacée. pattes brunes, cuisses fotes; tibia I conservé, allongé. Ailes transparentes; une cellule discoïdale et une cellule cubitale fermée; stigma noir, court. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Formica_latinodosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_latinodosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 8,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Formica_latinodosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_latinodosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Appartient certainement au groupe des Formica. Serait assez voisin de F. strangulata Wheeler de l'ambre de la Baltique. Mais on ne connait de cette espèce que les ♀, aussi n'oserais-je pas affirmer l'identité. ».
 </t>
         </is>
       </c>
